--- a/Olympics_Weather_Data.xlsx
+++ b/Olympics_Weather_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shu\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9178070e27bf27ee/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{22C9AB75-ED0B-4058-A984-11C2C49ED9A0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43DCFBC5-0267-4202-B089-413D8861EF68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{983937E9-6679-4BFE-8F85-8DAAB832E8F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{983937E9-6679-4BFE-8F85-8DAAB832E8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,16 @@
     <sheet name="S1996" sheetId="9" r:id="rId6"/>
     <sheet name="S1976" sheetId="15" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -245,13 +251,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -269,15 +275,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -310,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -335,23 +354,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,7 +390,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -665,23 +688,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33A682B-CCE0-4480-9AAA-6759EC0A4AC7}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="5" width="10.69921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="21.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -716,7 +739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="11">
         <v>2016</v>
       </c>
@@ -739,12 +762,16 @@
       <c r="G2" s="11">
         <v>7</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="19">
+        <v>22.52</v>
+      </c>
       <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="11">
+        <v>0.64944440000000014</v>
+      </c>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="11">
         <v>2012</v>
       </c>
@@ -767,12 +794,21 @@
       <c r="G3" s="11">
         <v>19</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="H3" s="19">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="I3" s="19">
+        <v>16.28</v>
+      </c>
+      <c r="J3" s="19">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="K3" s="19">
+        <v>1.417</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="11">
         <v>2008</v>
       </c>
@@ -795,12 +831,17 @@
       <c r="G4" s="11">
         <v>46</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11"/>
+      <c r="H4">
+        <v>25.142000000000003</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19">
+        <v>0.95799999999999996</v>
+      </c>
       <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="11">
         <v>2004</v>
       </c>
@@ -832,7 +873,7 @@
       </c>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="11">
         <v>2000</v>
       </c>
@@ -855,12 +896,20 @@
       <c r="G6" s="11">
         <v>0</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="H6" s="19">
+        <v>15.24</v>
+      </c>
+      <c r="I6" s="20">
+        <v>16.28</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="11">
         <v>1996</v>
       </c>
@@ -883,12 +932,20 @@
       <c r="G7" s="11">
         <v>312</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="H7" s="19">
+        <v>24.27</v>
+      </c>
+      <c r="I7" s="19">
+        <v>23.97</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="K7" s="19">
+        <v>-0.254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="11">
         <v>1992</v>
       </c>
@@ -911,12 +968,20 @@
       <c r="G8" s="11">
         <v>32</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="H8" s="19">
+        <v>23.06</v>
+      </c>
+      <c r="I8" s="19">
+        <v>23.44</v>
+      </c>
+      <c r="J8" s="19">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1.7110000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="11">
         <v>1988</v>
       </c>
@@ -952,7 +1017,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="11">
         <v>1984</v>
       </c>
@@ -988,7 +1053,7 @@
         <v>1.5760000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="11">
         <v>1980</v>
       </c>
@@ -1024,7 +1089,7 @@
         <v>-1.712</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="11">
         <v>1976</v>
       </c>
@@ -1052,7 +1117,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="11">
         <v>1972</v>
       </c>
@@ -1088,7 +1153,7 @@
         <v>-3.2679999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="11">
         <v>1968</v>
       </c>
@@ -1120,7 +1185,7 @@
       </c>
       <c r="K14" s="11"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="11">
         <v>1964</v>
       </c>
@@ -1152,7 +1217,7 @@
       </c>
       <c r="K15" s="11"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="11">
         <v>1960</v>
       </c>
@@ -2414,6 +2479,7 @@
       <c r="K57" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -2423,49 +2489,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CE8EC2-97D0-4169-AE5E-872D4A85F453}">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="3"/>
@@ -3544,7 +3611,6 @@
     </row>
     <row r="20" spans="1:20">
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -3565,7 +3631,10 @@
     </row>
     <row r="21" spans="1:20">
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <f>AVERAGE(C3:C19)</f>
+        <v>73.705882352941174</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3698,6 +3767,7 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3710,45 +3780,45 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3"/>
@@ -4817,6 +4887,7 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4829,45 +4900,45 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3"/>
@@ -5938,6 +6009,7 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5950,45 +6022,45 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3"/>
@@ -7060,6 +7132,7 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7072,45 +7145,45 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3"/>
@@ -8476,6 +8549,7 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8488,46 +8562,46 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.09765625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19" t="s">
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="3"/>
@@ -12115,6 +12189,8 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>